--- a/PoC構想書提出.xlsx
+++ b/PoC構想書提出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="構想書" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="465">
   <si>
     <t>POC構造書</t>
   </si>
@@ -831,14 +831,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">这块是你最容易被问到的亮点：你把 </t>
+      <t>数据(det_data)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
     </r>
     <r>
       <rPr>
@@ -849,17 +852,179 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>数据(det_data)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 和 </t>
+      <t>显示(det_vis)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 分开了</t>
+    </r>
+  </si>
+  <si>
+    <t>如果某帧 “空检测”（漏检），就把前一帧的框短暂沿用（最多 KEEP_ZERO 帧）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">但 JSONL 永远写 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>det_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（真实结果），所以统计分析不被“视觉补帧”污染</t>
+    </r>
+  </si>
+  <si>
+    <t>Q：为什么 HOLD 不写入 JSONL？</t>
+  </si>
+  <si>
+    <t>A：HOLD 是 UI/可视化稳定策略，不应影响真实检测统计，避免引入假阳性。</t>
+  </si>
+  <si>
+    <t>7) 时间轴对齐：给每帧一个稳定 time_sec（与抽帧无关）</t>
+  </si>
+  <si>
+    <t>src_idx = int(Path(fp).stem.split("_")[-1])</t>
+  </si>
+  <si>
+    <t>time_sec = src_idx / video_fps</t>
+  </si>
+  <si>
+    <t>rec = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "src_frame_idx": src_idx,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "time_sec": round(time_sec, 3),</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src_frame_idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是原视频帧号（不是 sample_idx）</t>
+    </r>
+  </si>
+  <si>
+    <t>time_sec = src_frame_idx / 原视频fps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">这样就算你改了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FPS_TARGET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（抽帧密度变了），时间轴依然对齐原视频，事件回放定位不会漂</t>
+    </r>
+  </si>
+  <si>
+    <t>Q：为什么不用 sample_idx 算时间？</t>
+  </si>
+  <si>
+    <t>A：sample_idx 依赖抽帧策略，会随 FPS_TARGET 改变；用原视频帧号更稳。</t>
+  </si>
+  <si>
+    <t>输入输出：你在做“检测日志 → 特征表”</t>
+  </si>
+  <si>
+    <t>TRACKS_JSONL = Path("data/outputs/tracks.jsonl")</t>
+  </si>
+  <si>
+    <t>OUT_FRAME    = Path("data/outputs/features_frame.csv")</t>
+  </si>
+  <si>
+    <t>OUT_TRACK    = Path("data/outputs/features_track.csv")</t>
+  </si>
+  <si>
+    <t>输入：每行=一帧的检测/追踪结果（含 track_id、bbox、conf、time_sec）</t>
+  </si>
+  <si>
+    <t>输出：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>features_frame.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -870,158 +1035,992 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>显示(det_vis)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 分开了</t>
-    </r>
-  </si>
-  <si>
-    <t>如果某帧 “空检测”（漏检），就把前一帧的框短暂沿用（最多 KEEP_ZERO 帧）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">但 JSONL 永远写 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>det_data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（真实结果），所以统计分析不被“视觉补帧”污染</t>
-    </r>
-  </si>
-  <si>
-    <t>Q：为什么 HOLD 不写入 JSONL？</t>
-  </si>
-  <si>
-    <t>A：HOLD 是 UI/可视化稳定策略，不应影响真实检测统计，避免引入假阳性。</t>
-  </si>
-  <si>
-    <t>7) 时间轴对齐：给每帧一个稳定 time_sec（与抽帧无关）</t>
-  </si>
-  <si>
-    <t>src_idx = int(Path(fp).stem.split("_")[-1])</t>
-  </si>
-  <si>
-    <t>time_sec = src_idx / video_fps</t>
-  </si>
-  <si>
-    <t>rec = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "src_frame_idx": src_idx,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "time_sec": round(time_sec, 3),</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>src_frame_idx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 是原视频帧号（不是 sample_idx）</t>
-    </r>
-  </si>
-  <si>
-    <t>time_sec = src_frame_idx / 原视频fps</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">这样就算你改了 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FPS_TARGET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（抽帧密度变了），时间轴依然对齐原视频，事件回放定位不会漂</t>
-    </r>
-  </si>
-  <si>
-    <t>Q：为什么不用 sample_idx 算时间？</t>
-  </si>
-  <si>
-    <t>A：sample_idx 依赖抽帧策略，会随 FPS_TARGET 改变；用原视频帧号更稳。</t>
-  </si>
-  <si>
-    <t>输入输出：你在做“检测日志 → 特征表”</t>
-  </si>
-  <si>
-    <t>TRACKS_JSONL = Path("data/outputs/tracks.jsonl")</t>
-  </si>
-  <si>
-    <t>OUT_FRAME    = Path("data/outputs/features_frame.csv")</t>
-  </si>
-  <si>
-    <t>OUT_TRACK    = Path("data/outputs/features_track.csv")</t>
-  </si>
-  <si>
-    <t>输入：每行=一帧的检测/追踪结果（含 track_id、bbox、conf、time_sec）</t>
-  </si>
-  <si>
-    <t>输出：</t>
+      <t>按帧汇总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（船数、面积等）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>features_track.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按轨迹汇总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（每条船出现多久、移动多远等）</t>
+    </r>
+  </si>
+  <si>
+    <t>1) 几何工具：面积/中心/距离（后面全靠它）</t>
+  </si>
+  <si>
+    <t>def bbox_area(b):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    x1, y1, x2, y2 = b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return max(0.0, x2 - x1) * max(0.0, y2 - y1)</t>
+  </si>
+  <si>
+    <t>def bbox_center(b):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return (0.5 * (x1 + x2), 0.5 * (y1 + y2))</t>
+  </si>
+  <si>
+    <t>def dist(p, q):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return math.hypot(p[0] - q[0], p[1] - q[1])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bbox_area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：bbox 像素面积（异常坐标自动 clip 到 0）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bbox_center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：中心点（用于轨迹移动）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：相邻中心点距离（用于“航行距离/移动距离”）</t>
+    </r>
+  </si>
+  <si>
+    <t>追问口径</t>
+  </si>
+  <si>
+    <t>Q：为什么用中心点移动距离？</t>
+  </si>
+  <si>
+    <t>A：在没有真实坐标系时，用像素位移做 proxy，适合趋势与相对变化分析。</t>
+  </si>
+  <si>
+    <t>2) 读 JSONL：每行一帧，变成 list[dict]</t>
+  </si>
+  <si>
+    <t>def read_jsonl(path):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    rows = []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    with path.open("r", encoding="utf-8") as f:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for line in f:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            line = line.strip()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if not line:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            rows.append(json.loads(line))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return rows</t>
+  </si>
+  <si>
+    <t>把 tracks.jsonl 全读进来，每行一个 frame record</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">后面 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for i, r in enumerate(rows)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 逐帧处理</t>
+    </r>
+  </si>
+  <si>
+    <t>3) 核心设计：一边做“帧级统计”，一边累积“轨迹点”</t>
+  </si>
+  <si>
+    <r>
+      <t>同一遍循环里同时完成 frame 聚合和 track 累积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，效率高、结构清楚。</t>
+    </r>
+  </si>
+  <si>
+    <t>关键数据结构</t>
+  </si>
+  <si>
+    <t>frame_feats = []</t>
+  </si>
+  <si>
+    <t>track_points = defaultdict(list)  # tid -&gt; [(src_frame_idx, cx, cy, area, conf), ...]</t>
+  </si>
+  <si>
+    <t>track_night  = defaultdict(list)  # tid -&gt; [is_night,...]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frame_feats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：每帧的统计特征（最后变成 features_frame.csv）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>track_points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：每个 track_id 的时序点集合（最后算 duration/path/speed）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>track_night</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：每个 track 的夜间标记（算夜间占比）</t>
+    </r>
+  </si>
+  <si>
+    <t>4) 帧循环：把一帧里的 items 汇总成 ship_count / area_sum 等</t>
+  </si>
+  <si>
+    <t>关键代码（兼容字段名 + 时间轴）</t>
+  </si>
+  <si>
+    <t>sample_idx = i</t>
+  </si>
+  <si>
+    <t>src_val = r.get("src_frame_idx", None)</t>
+  </si>
+  <si>
+    <t>src_idx = int(src_val) if src_val is not None else i</t>
+  </si>
+  <si>
+    <t>ts = r.get("time_sec", None)</t>
+  </si>
+  <si>
+    <t>time_sec = float(ts) if ts is not None and ts != "" else None</t>
+  </si>
+  <si>
+    <t>items = r.get("items", []) or r.get("tracks", [])</t>
+  </si>
+  <si>
+    <t>is_night = r.get("is_night", None)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sample_idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：你抽帧后的连续序号（rolling/绘图用）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frame_idx(src_idx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：原视频帧号（回放定位用）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time_sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：原视频时间轴（跨不同抽帧设置仍可对齐）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：兼容老字段名（items/tracks）</t>
+    </r>
+  </si>
+  <si>
+    <t>关键代码（逐检测框累积）</t>
+  </si>
+  <si>
+    <t>n = 0</t>
+  </si>
+  <si>
+    <t>areas = []</t>
+  </si>
+  <si>
+    <t>confs = []</t>
+  </si>
+  <si>
+    <t>for it in items:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tid  = it.get("track_id", None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bbox = it.get("bbox", None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    conf = it.get("conf", None)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if tid is None or bbox is None:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    n += 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    a = bbox_area(bbox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    c = bbox_center(bbox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    areas.append(a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if conf is not None:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        confs.append(float(conf))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    track_points[int(tid)].append((src_idx, c[0], c[1], a, float(conf) if conf is not None else None))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if is_night is not None:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        track_night[int(tid)].append(int(is_night))</t>
+  </si>
+  <si>
+    <t>每个 bbox：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">计算面积 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">计算中心 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>帧级：累积数量/面积/置信度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">轨迹级：把 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(frame_idx, cx, cy, area, conf)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 追加到该 track_id 的列表里</t>
+    </r>
+  </si>
+  <si>
+    <t>关键代码（生成帧级特征）</t>
+  </si>
+  <si>
+    <t>frame_feats.append({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "time_sec": time_sec,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "sample_idx": sample_idx,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "frame_idx": src_idx,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "is_night": is_night if is_night is not None else "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "ship_count": n,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "area_sum": sum(areas) if areas else 0.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "area_mean": (sum(areas) / n) if n else 0.0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "conf_mean": (sum(confs) / len(confs)) if confs else "",</t>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <t>得到的帧特征含义</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ship_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：这一帧有几条船（检测框数）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>area_sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：这一帧船 bbox 的总像素面积（拥挤度 proxy）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>area_mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：平均每条船的 bbox 面积（大船出现倾向）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>conf_mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：这一帧平均置信度（质量监控）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is_night/time_sec/frame_idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：上下文对齐字段</t>
+    </r>
+  </si>
+  <si>
+    <t>5) 轨迹汇总：算“航行/移动距离、出现时长、速度”等</t>
+  </si>
+  <si>
+    <t>关键代码（排序 + 时长）</t>
+  </si>
+  <si>
+    <t>pts = sorted(pts, key=lambda x: x[0])  # 按 src_frame_idx</t>
+  </si>
+  <si>
+    <t>first_src = pts[0][0]</t>
+  </si>
+  <si>
+    <t>last_src  = pts[-1][0]</t>
+  </si>
+  <si>
+    <t>duration_src_frames = last_src - first_src + 1</t>
+  </si>
+  <si>
+    <t>appear_samples = len(pts)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duration_src_frames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：这条船从首次到最后一次出现，跨了多少原视频帧（跨度）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appear_samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：抽帧后真正“被观测到”的点数（密度相关）</t>
+    </r>
+  </si>
+  <si>
+    <t>面试官可能会问“哪个更像时长？”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">想表达“存在跨度”用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duration_src_frames</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">想表达“被你系统看到的次数”用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appear_samples</t>
+    </r>
+  </si>
+  <si>
+    <t>关键代码（移动距离 path_len_px）</t>
+  </si>
+  <si>
+    <t>path = 0.0</t>
+  </si>
+  <si>
+    <t>for j in range(1, len(pts)):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    p = (pts[j-1][1], pts[j-1][2])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    q = (pts[j][1], pts[j][2])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    path += dist(p, q)</t>
+  </si>
+  <si>
+    <t>把相邻观测点中心的位移加起来</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">得到这条船的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>像素级总移动距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path_len_px</t>
+    </r>
+  </si>
+  <si>
+    <t>这是“航行距离/移动距离”的 proxy（不是米，是 px）</t>
+  </si>
+  <si>
+    <t>关键代码（平均速度）</t>
+  </si>
+  <si>
+    <t>avg_speed_px_per_sample = ""</t>
+  </si>
+  <si>
+    <t>if appear_samples &gt;= 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    avg_speed_px_per_sample = path / (appear_samples - 1)</t>
+  </si>
+  <si>
+    <t>单位：px / 抽样间隔（每个 sample step）</t>
+  </si>
+  <si>
+    <t>便于区分：</t>
+  </si>
+  <si>
+    <t>靠泊（几乎不动）</t>
+  </si>
+  <si>
+    <t>缓慢航行</t>
+  </si>
+  <si>
+    <t>快速驶过镜头</t>
+  </si>
+  <si>
+    <t>关键代码（夜间比率）</t>
+  </si>
+  <si>
+    <t>night_ratio = ""</t>
+  </si>
+  <si>
+    <t>if tid in track_night and track_night[tid]:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    night_ratio = sum(track_night[tid]) / len(track_night[tid])</t>
+  </si>
+  <si>
+    <t>这条船出现期间，有多少比例是在夜间被检测到（0~1）</t>
+  </si>
+  <si>
+    <t>用于后面分析：夜间检测质量/活动模式</t>
+  </si>
+  <si>
+    <t>6) 时序平滑：5 帧 rolling mean（帧级特征）</t>
+  </si>
+  <si>
+    <t>df_f["ship_count_smooth"] = df_f["ship_count"].rolling(5, center=True, min_periods=1).mean()</t>
+  </si>
+  <si>
+    <t>df_f["area_smooth"] = df_f["area_sum"].rolling(5, center=True, min_periods=1).mean()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对帧级信号做 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中心 5 帧移动平均</t>
+    </r>
+  </si>
+  <si>
+    <t>目的：抑制 YOLO 抖动/偶发漏检，得到更稳定的趋势曲线</t>
+  </si>
+  <si>
+    <t>注意：这不是 track 里的 HOLD；这是“统计信号平滑”</t>
+  </si>
+  <si>
+    <t>7) 输出：两个表，各司其职</t>
+  </si>
+  <si>
+    <t>df_f.to_csv(OUT_FRAME, index=False, encoding="utf-8")</t>
+  </si>
+  <si>
+    <t>df_t.to_csv(OUT_TRACK, index=False, encoding="utf-8")</t>
   </si>
   <si>
     <r>
@@ -1042,8 +2041,552 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>：给 report / event 用（趋势、事件）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>features_track.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：给“单船行为分析”用（移动距离、停留时间等）</t>
+    </r>
+  </si>
+  <si>
+    <t>「我从 tracks.jsonl 逐帧读取检测+追踪结果，一方面做帧级聚合得到 ship_count、area_sum、conf_mean 等时间序列，并对 ship_count/area_sum 做 5 点移动平均平滑；另一方面按 track_id 累积每条船的中心点轨迹，计算出现跨度(duration_src_frames)、观测点数(appear_samples)、像素级移动距离(path_len_px)和平均速度(avg_speed_px_per_sample)，再输出 frame-level 和 track-level 两份特征表用于事件检测与报告生成。」</t>
+  </si>
+  <si>
+    <t>面试官常见追问</t>
+  </si>
+  <si>
+    <t>Q：path_len_px 为什么不是米？</t>
+  </si>
+  <si>
+    <t>A：镜头缺少标定信息，先用像素位移做 proxy；若需要真实距离可用相机标定/透视变换/参考物尺度换算。</t>
+  </si>
+  <si>
+    <t>Q：duration_src_frames vs appear_samples 有什么区别？</t>
+  </si>
+  <si>
+    <t>A：前者是出现跨度（可能中间丢帧），后者是实际观测点数（受抽帧和漏检影响）。</t>
+  </si>
+  <si>
+    <t>Q：rolling(5, center=True) 为什么中心？</t>
+  </si>
+  <si>
+    <t>A：减少相位滞后，让峰值时间不偏移，便于和事件/回放对齐。</t>
+  </si>
+  <si>
+    <t>rolling z-score：用“局部均值/方差”把信号标准化</t>
+  </si>
+  <si>
+    <t>WINDOW  = 30</t>
+  </si>
+  <si>
+    <t>Z_TH    = 2.5</t>
+  </si>
+  <si>
+    <t>def rolling_z(s: pd.Series, w: int):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    m  = s.rolling(w, min_periods=max(5, w // 3)).mean()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sd = s.rolling(w, min_periods=max(5, w // 3)).std()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z  = (s - m) / (sd + 1e-9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return z</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对每个时间点，用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近 WINDOW 个样本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">局部均值 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">局部标准差 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sd</t>
+    </r>
+  </si>
+  <si>
+    <t>然后算 z 分数：</t>
+  </si>
+  <si>
+    <t>z=x−μlocalσlocalz = \frac{x - \mu_{local}}{\sigma_{local}}z=σlocal​x−μlocal​​</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min_periods=max(5, w//3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：前面数据不够时不硬算，避免开头区间 z 分数乱飞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1e-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：防止 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sd=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的除零</t>
+    </r>
+  </si>
+  <si>
+    <t>面试官问法（背一句）</t>
+  </si>
+  <si>
+    <t>「我用 rolling mean/std 做局部标准化（rolling z-score），这样阈值不依赖绝对数值，能适应不同时间段的基线变化。」</t>
+  </si>
+  <si>
+    <t>2) 两条信号，两类事件：船数突增 vs 大船/拥堵</t>
+  </si>
+  <si>
+    <t>df["z_ship_count"] = rolling_z(df["ship_count"], WINDOW)</t>
+  </si>
+  <si>
+    <t>df["z_area_sum"]   = rolling_z(df["area_sum"], WINDOW)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ship_count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（船数）做异常检测 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traffic_spike</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>area_sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（bbox 总面积）做异常检测 → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>big_ship_congestion</t>
+    </r>
+  </si>
+  <si>
+    <t>area_sum 更像“大船靠近/占屏/密集”的 proxy</t>
+  </si>
+  <si>
+    <t>3) 事件抽取：过阈值就候选，再用 MIN_GAP 去重</t>
+  </si>
+  <si>
+    <t>MIN_GAP = 10</t>
+  </si>
+  <si>
+    <t>for _, r in df[df[score_col] &gt;= Z_TH].sort_values("sample_idx").iterrows():</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sample = int(r["sample_idx"])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if sample - last_sample &lt; MIN_GAP:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    last_sample = sample</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先筛选：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z &gt;= Z_TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的点（候选事件）</t>
+    </r>
+  </si>
+  <si>
+    <t>再按时间排序</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIN_GAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 做 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>debounce / thinning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>：</t>
     </r>
+  </si>
+  <si>
+    <t>同一种事件，10 个 sample 内只保留一次</t>
+  </si>
+  <si>
+    <t>防止一个高峰连续 10 帧被记成 10 个事件</t>
+  </si>
+  <si>
+    <t>“阈值点间引（thinning）”，不是严格“峰值点 picking”（没找 local maxima）。</t>
+  </si>
+  <si>
+    <t>面试时说成 “阈值超えの点を MIN_GAP で間引き” 就很稳。</t>
+  </si>
+  <si>
+    <t>4) 事件记录：同时保留三种时间轴（很加分）</t>
+  </si>
+  <si>
+    <t>events.append({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "kind": kind,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "sample_idx": sample,          # 抽样序号（连续，rolling用）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "frame_idx": int(r["frame_idx"]), # 原视频帧号（回放对齐）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "time_sec": time_sec,          # 秒（跨抽帧设置仍可对齐）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "score": float(r[score_col]),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "ship_count": int(r["ship_count"]),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "area_sum": float(r["area_sum"]),</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sample_idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：你的分析轴（rolling窗口、gap都基于它）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frame_idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：回放定位用（最实用）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time_sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：跨 FPS_TARGET 仍然稳定（工程上非常漂亮）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>面试官问：</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1053,39 +2596,107 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>按帧汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（船数、面积等）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>features_track.csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
+      <t>为什么要保留 frame_idx/time_sec？</t>
+    </r>
+  </si>
+  <si>
+    <t>为了事件回放和跨抽帧策略对齐，避免 sample_idx 漂移。</t>
+  </si>
+  <si>
+    <t>5) 输出：CSV 给人看，JSON 给程序/复现实验看</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(ev).to_csv(OUT_CSV, ...)</t>
+  </si>
+  <si>
+    <t>json.dump({"events": ev, "params": {"window": WINDOW, "z_th": Z_TH, "min_gap": MIN_GAP}}, ...)</t>
+  </si>
+  <si>
+    <t>1) 时间轴选择：优先用 time_sec（更稳），没有就退回 sample_idx</t>
+  </si>
+  <si>
+    <t>use_time = ("time_sec" in df.columns) and df["time_sec"].notna().any()</t>
+  </si>
+  <si>
+    <t>x = df["time_sec"] if use_time else df["sample_idx"]</t>
+  </si>
+  <si>
+    <t>x_label = "time_sec" if use_time else "sample_idx"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果 features 里有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time_sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就用真实秒作为 x 轴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">否则用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sample_idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（抽帧序号）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这点很加分：</t>
     </r>
     <r>
       <rPr>
@@ -1096,196 +2707,66 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>按轨迹汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（每条船出现多久、移动多远等）</t>
-    </r>
-  </si>
-  <si>
-    <t>1) 几何工具：面积/中心/距离（后面全靠它）</t>
-  </si>
-  <si>
-    <t>def bbox_area(b):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    x1, y1, x2, y2 = b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return max(0.0, x2 - x1) * max(0.0, y2 - y1)</t>
-  </si>
-  <si>
-    <t>def bbox_center(b):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return (0.5 * (x1 + x2), 0.5 * (y1 + y2))</t>
-  </si>
-  <si>
-    <t>def dist(p, q):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return math.hypot(p[0] - q[0], p[1] - q[1])</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bbox_area</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：bbox 像素面积（异常坐标自动 clip 到 0）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bbox_center</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：中心点（用于轨迹移动）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：相邻中心点距离（用于“航行距离/移动距离”）</t>
-    </r>
-  </si>
-  <si>
-    <t>追问口径</t>
-  </si>
-  <si>
-    <t>Q：为什么用中心点移动距离？</t>
-  </si>
-  <si>
-    <t>A：在没有真实坐标系时，用像素位移做 proxy，适合趋势与相对变化分析。</t>
-  </si>
-  <si>
-    <t>2) 读 JSONL：每行一帧，变成 list[dict]</t>
-  </si>
-  <si>
-    <t>def read_jsonl(path):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    rows = []</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    with path.open("r", encoding="utf-8") as f:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        for line in f:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            line = line.strip()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if not line:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            rows.append(json.loads(line))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return rows</t>
-  </si>
-  <si>
-    <t>把 tracks.jsonl 全读进来，每行一个 frame record</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">后面 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for i, r in enumerate(rows)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 逐帧处理</t>
-    </r>
-  </si>
-  <si>
-    <t>3) 核心设计：一边做“帧级统计”，一边累积“轨迹点”</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>你这段很关键：</t>
+      <t>抽帧策略变了，time_sec 依然能对齐原视频</t>
+    </r>
+  </si>
+  <si>
+    <t>2) 建索引用于事件“快速对齐”（避免循环查找）</t>
+  </si>
+  <si>
+    <t>df_by_sample = df.set_index("sample_idx", drop=False)</t>
+  </si>
+  <si>
+    <t>df_by_frame  = df.set_index("frame_idx", drop=False) if "frame_idx" in df.columns else None</t>
+  </si>
+  <si>
+    <t>df_by_time   = df.set_index("time_sec",  drop=False) if use_time else None</t>
+  </si>
+  <si>
+    <t>预先准备三种索引表：按 sample / frame / time 查</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">后面画事件点时用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.loc[xs]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 一次取出对应 y 值，速度快、代码清爽</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这属于“工程层面的算法”：</t>
     </r>
     <r>
       <rPr>
@@ -1296,1529 +2777,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>同一遍循环里同时完成 frame 聚合和 track 累积</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，效率高、结构清楚。</t>
-    </r>
-  </si>
-  <si>
-    <t>关键数据结构</t>
-  </si>
-  <si>
-    <t>frame_feats = []</t>
-  </si>
-  <si>
-    <t>track_points = defaultdict(list)  # tid -&gt; [(src_frame_idx, cx, cy, area, conf), ...]</t>
-  </si>
-  <si>
-    <t>track_night  = defaultdict(list)  # tid -&gt; [is_night,...]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>frame_feats</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：每帧的统计特征（最后变成 features_frame.csv）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>track_points</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：每个 track_id 的时序点集合（最后算 duration/path/speed）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>track_night</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：每个 track 的夜间标记（算夜间占比）</t>
-    </r>
-  </si>
-  <si>
-    <t>4) 帧循环：把一帧里的 items 汇总成 ship_count / area_sum 等</t>
-  </si>
-  <si>
-    <t>关键代码（兼容字段名 + 时间轴）</t>
-  </si>
-  <si>
-    <t>sample_idx = i</t>
-  </si>
-  <si>
-    <t>src_val = r.get("src_frame_idx", None)</t>
-  </si>
-  <si>
-    <t>src_idx = int(src_val) if src_val is not None else i</t>
-  </si>
-  <si>
-    <t>ts = r.get("time_sec", None)</t>
-  </si>
-  <si>
-    <t>time_sec = float(ts) if ts is not None and ts != "" else None</t>
-  </si>
-  <si>
-    <t>items = r.get("items", []) or r.get("tracks", [])</t>
-  </si>
-  <si>
-    <t>is_night = r.get("is_night", None)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sample_idx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：你抽帧后的连续序号（rolling/绘图用）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>frame_idx(src_idx)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：原视频帧号（回放定位用）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>time_sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：原视频时间轴（跨不同抽帧设置仍可对齐）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>items</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：兼容老字段名（items/tracks）</t>
-    </r>
-  </si>
-  <si>
-    <t>关键代码（逐检测框累积）</t>
-  </si>
-  <si>
-    <t>n = 0</t>
-  </si>
-  <si>
-    <t>areas = []</t>
-  </si>
-  <si>
-    <t>confs = []</t>
-  </si>
-  <si>
-    <t>for it in items:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    tid  = it.get("track_id", None)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    bbox = it.get("bbox", None)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    conf = it.get("conf", None)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if tid is None or bbox is None:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    n += 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    a = bbox_area(bbox)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    c = bbox_center(bbox)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    areas.append(a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if conf is not None:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        confs.append(float(conf))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    track_points[int(tid)].append((src_idx, c[0], c[1], a, float(conf) if conf is not None else None))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if is_night is not None:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        track_night[int(tid)].append(int(is_night))</t>
-  </si>
-  <si>
-    <t>干了什么（面试一句话）</t>
-  </si>
-  <si>
-    <t>每个 bbox：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">计算面积 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">计算中心 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-  </si>
-  <si>
-    <t>帧级：累积数量/面积/置信度</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">轨迹级：把 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(frame_idx, cx, cy, area, conf)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 追加到该 track_id 的列表里</t>
-    </r>
-  </si>
-  <si>
-    <t>关键代码（生成帧级特征）</t>
-  </si>
-  <si>
-    <t>frame_feats.append({</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "time_sec": time_sec,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "sample_idx": sample_idx,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "frame_idx": src_idx,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "is_night": is_night if is_night is not None else "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "ship_count": n,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "area_sum": sum(areas) if areas else 0.0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "area_mean": (sum(areas) / n) if n else 0.0,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "conf_mean": (sum(confs) / len(confs)) if confs else "",</t>
-  </si>
-  <si>
-    <t>})</t>
-  </si>
-  <si>
-    <t>得到的帧特征含义</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ship_count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：这一帧有几条船（检测框数）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>area_sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：这一帧船 bbox 的总像素面积（拥挤度 proxy）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>area_mean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：平均每条船的 bbox 面积（大船出现倾向）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>conf_mean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：这一帧平均置信度（质量监控）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is_night/time_sec/frame_idx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：上下文对齐字段</t>
-    </r>
-  </si>
-  <si>
-    <t>5) 轨迹汇总：算“航行/移动距离、出现时长、速度”等</t>
-  </si>
-  <si>
-    <t>关键代码（排序 + 时长）</t>
-  </si>
-  <si>
-    <t>pts = sorted(pts, key=lambda x: x[0])  # 按 src_frame_idx</t>
-  </si>
-  <si>
-    <t>first_src = pts[0][0]</t>
-  </si>
-  <si>
-    <t>last_src  = pts[-1][0]</t>
-  </si>
-  <si>
-    <t>duration_src_frames = last_src - first_src + 1</t>
-  </si>
-  <si>
-    <t>appear_samples = len(pts)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duration_src_frames</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：这条船从首次到最后一次出现，跨了多少原视频帧（跨度）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>appear_samples</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：抽帧后真正“被观测到”的点数（密度相关）</t>
-    </r>
-  </si>
-  <si>
-    <t>面试官可能会问“哪个更像时长？”</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">想表达“存在跨度”用 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duration_src_frames</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">想表达“被你系统看到的次数”用 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>appear_samples</t>
-    </r>
-  </si>
-  <si>
-    <t>关键代码（移动距离 path_len_px）</t>
-  </si>
-  <si>
-    <t>path = 0.0</t>
-  </si>
-  <si>
-    <t>for j in range(1, len(pts)):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    p = (pts[j-1][1], pts[j-1][2])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    q = (pts[j][1], pts[j][2])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    path += dist(p, q)</t>
-  </si>
-  <si>
-    <t>把相邻观测点中心的位移加起来</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">得到这条船的 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>像素级总移动距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>path_len_px</t>
-    </r>
-  </si>
-  <si>
-    <t>这是“航行距离/移动距离”的 proxy（不是米，是 px）</t>
-  </si>
-  <si>
-    <t>关键代码（平均速度）</t>
-  </si>
-  <si>
-    <t>avg_speed_px_per_sample = ""</t>
-  </si>
-  <si>
-    <t>if appear_samples &gt;= 2:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    avg_speed_px_per_sample = path / (appear_samples - 1)</t>
-  </si>
-  <si>
-    <t>单位：px / 抽样间隔（每个 sample step）</t>
-  </si>
-  <si>
-    <t>便于区分：</t>
-  </si>
-  <si>
-    <t>靠泊（几乎不动）</t>
-  </si>
-  <si>
-    <t>缓慢航行</t>
-  </si>
-  <si>
-    <t>快速驶过镜头</t>
-  </si>
-  <si>
-    <t>关键代码（夜间比率）</t>
-  </si>
-  <si>
-    <t>night_ratio = ""</t>
-  </si>
-  <si>
-    <t>if tid in track_night and track_night[tid]:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    night_ratio = sum(track_night[tid]) / len(track_night[tid])</t>
-  </si>
-  <si>
-    <t>这条船出现期间，有多少比例是在夜间被检测到（0~1）</t>
-  </si>
-  <si>
-    <t>用于后面分析：夜间检测质量/活动模式</t>
-  </si>
-  <si>
-    <t>6) 时序平滑：5 帧 rolling mean（帧级特征）</t>
-  </si>
-  <si>
-    <t>df_f["ship_count_smooth"] = df_f["ship_count"].rolling(5, center=True, min_periods=1).mean()</t>
-  </si>
-  <si>
-    <t>df_f["area_smooth"] = df_f["area_sum"].rolling(5, center=True, min_periods=1).mean()</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">对帧级信号做 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中心 5 帧移动平均</t>
-    </r>
-  </si>
-  <si>
-    <t>目的：抑制 YOLO 抖动/偶发漏检，得到更稳定的趋势曲线</t>
-  </si>
-  <si>
-    <t>注意：这不是 track 里的 HOLD；这是“统计信号平滑”</t>
-  </si>
-  <si>
-    <t>7) 输出：两个表，各司其职</t>
-  </si>
-  <si>
-    <t>df_f.to_csv(OUT_FRAME, index=False, encoding="utf-8")</t>
-  </si>
-  <si>
-    <t>df_t.to_csv(OUT_TRACK, index=False, encoding="utf-8")</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>features_frame.csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：给 report / event 用（趋势、事件）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>features_track.csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：给“单船行为分析”用（移动距离、停留时间等）</t>
-    </r>
-  </si>
-  <si>
-    <t>面试一句话版总结（背这个）</t>
-  </si>
-  <si>
-    <t>「我从 tracks.jsonl 逐帧读取检测+追踪结果，一方面做帧级聚合得到 ship_count、area_sum、conf_mean 等时间序列，并对 ship_count/area_sum 做 5 点移动平均平滑；另一方面按 track_id 累积每条船的中心点轨迹，计算出现跨度(duration_src_frames)、观测点数(appear_samples)、像素级移动距离(path_len_px)和平均速度(avg_speed_px_per_sample)，再输出 frame-level 和 track-level 两份特征表用于事件检测与报告生成。」</t>
-  </si>
-  <si>
-    <t>面试官常见追问（我提前给你答案）</t>
-  </si>
-  <si>
-    <t>Q：path_len_px 为什么不是米？</t>
-  </si>
-  <si>
-    <t>A：镜头缺少标定信息，先用像素位移做 proxy；若需要真实距离可用相机标定/透视变换/参考物尺度换算。</t>
-  </si>
-  <si>
-    <t>Q：duration_src_frames vs appear_samples 有什么区别？</t>
-  </si>
-  <si>
-    <t>A：前者是出现跨度（可能中间丢帧），后者是实际观测点数（受抽帧和漏检影响）。</t>
-  </si>
-  <si>
-    <t>Q：rolling(5, center=True) 为什么中心？</t>
-  </si>
-  <si>
-    <t>A：减少相位滞后，让峰值时间不偏移，便于和事件/回放对齐。</t>
-  </si>
-  <si>
-    <t>rolling z-score：用“局部均值/方差”把信号标准化</t>
-  </si>
-  <si>
-    <t>WINDOW  = 30</t>
-  </si>
-  <si>
-    <t>Z_TH    = 2.5</t>
-  </si>
-  <si>
-    <t>def rolling_z(s: pd.Series, w: int):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    m  = s.rolling(w, min_periods=max(5, w // 3)).mean()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    sd = s.rolling(w, min_periods=max(5, w // 3)).std()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z  = (s - m) / (sd + 1e-9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return z</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对每个时间点，用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最近 WINDOW 个样本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>算：</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">局部均值 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">局部标准差 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sd</t>
-    </r>
-  </si>
-  <si>
-    <t>然后算 z 分数：</t>
-  </si>
-  <si>
-    <t>z=x−μlocalσlocalz = \frac{x - \mu_{local}}{\sigma_{local}}z=σlocal​x−μlocal​​</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min_periods=max(5, w//3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：前面数据不够时不硬算，避免开头区间 z 分数乱飞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+1e-9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">：防止 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sd=0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的除零</t>
-    </r>
-  </si>
-  <si>
-    <t>面试官问法（背一句）</t>
-  </si>
-  <si>
-    <t>「我用 rolling mean/std 做局部标准化（rolling z-score），这样阈值不依赖绝对数值，能适应不同时间段的基线变化。」</t>
-  </si>
-  <si>
-    <t>2) 两条信号，两类事件：船数突增 vs 大船/拥堵</t>
-  </si>
-  <si>
-    <t>df["z_ship_count"] = rolling_z(df["ship_count"], WINDOW)</t>
-  </si>
-  <si>
-    <t>df["z_area_sum"]   = rolling_z(df["area_sum"], WINDOW)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">对 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ship_count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">（船数）做异常检测 → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>traffic_spike</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">对 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>area_sum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">（bbox 总面积）做异常检测 → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>big_ship_congestion</t>
-    </r>
-  </si>
-  <si>
-    <t>area_sum 更像“大船靠近/占屏/密集”的 proxy</t>
-  </si>
-  <si>
-    <t>3) 事件抽取：过阈值就候选，再用 MIN_GAP 去重</t>
-  </si>
-  <si>
-    <t>MIN_GAP = 10</t>
-  </si>
-  <si>
-    <t>for _, r in df[df[score_col] &gt;= Z_TH].sort_values("sample_idx").iterrows():</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    sample = int(r["sample_idx"])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if sample - last_sample &lt; MIN_GAP:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    last_sample = sample</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>先筛选：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>z &gt;= Z_TH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的点（候选事件）</t>
-    </r>
-  </si>
-  <si>
-    <t>再按时间排序</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">用 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MIN_GAP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 做 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>debounce / thinning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-  </si>
-  <si>
-    <t>同一种事件，10 个 sample 内只保留一次</t>
-  </si>
-  <si>
-    <t>防止一个高峰连续 10 帧被记成 10 个事件</t>
-  </si>
-  <si>
-    <t>你现在其实是“阈值点间引（thinning）”，不是严格“峰值点 picking”（没找 local maxima）。</t>
-  </si>
-  <si>
-    <t>面试时说成 “阈值超えの点を MIN_GAP で間引き” 就很稳。</t>
-  </si>
-  <si>
-    <t>4) 事件记录：同时保留三种时间轴（很加分）</t>
-  </si>
-  <si>
-    <t>events.append({</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "kind": kind,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "sample_idx": sample,          # 抽样序号（连续，rolling用）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "frame_idx": int(r["frame_idx"]), # 原视频帧号（回放对齐）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "time_sec": time_sec,          # 秒（跨抽帧设置仍可对齐）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "score": float(r[score_col]),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "ship_count": int(r["ship_count"]),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "area_sum": float(r["area_sum"]),</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sample_idx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：你的分析轴（rolling窗口、gap都基于它）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>frame_idx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：回放定位用（最实用）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>time_sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：跨 FPS_TARGET 仍然稳定（工程上非常漂亮）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>面试官问：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>为什么要保留 frame_idx/time_sec？</t>
-    </r>
-  </si>
-  <si>
-    <t>答：为了事件回放和跨抽帧策略对齐，避免 sample_idx 漂移。</t>
-  </si>
-  <si>
-    <t>5) 输出：CSV 给人看，JSON 给程序/复现实验看</t>
-  </si>
-  <si>
-    <t>pd.DataFrame(ev).to_csv(OUT_CSV, ...)</t>
-  </si>
-  <si>
-    <t>json.dump({"events": ev, "params": {"window": WINDOW, "z_th": Z_TH, "min_gap": MIN_GAP}}, ...)</t>
-  </si>
-  <si>
-    <t>1) 时间轴选择：优先用 time_sec（更稳），没有就退回 sample_idx</t>
-  </si>
-  <si>
-    <t>use_time = ("time_sec" in df.columns) and df["time_sec"].notna().any()</t>
-  </si>
-  <si>
-    <t>x = df["time_sec"] if use_time else df["sample_idx"]</t>
-  </si>
-  <si>
-    <t>x_label = "time_sec" if use_time else "sample_idx"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">如果 features 里有 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>time_sec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，就用真实秒作为 x 轴</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">否则用 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sample_idx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（抽帧序号）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这点很加分：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>抽帧策略变了，time_sec 依然能对齐原视频</t>
-    </r>
-  </si>
-  <si>
-    <t>2) 建索引用于事件“快速对齐”（避免循环查找）</t>
-  </si>
-  <si>
-    <t>df_by_sample = df.set_index("sample_idx", drop=False)</t>
-  </si>
-  <si>
-    <t>df_by_frame  = df.set_index("frame_idx", drop=False) if "frame_idx" in df.columns else None</t>
-  </si>
-  <si>
-    <t>df_by_time   = df.set_index("time_sec",  drop=False) if use_time else None</t>
-  </si>
-  <si>
-    <t>预先准备三种索引表：按 sample / frame / time 查</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">后面画事件点时用 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.loc[xs]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 一次取出对应 y 值，速度快、代码清爽</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这属于“工程层面的算法”：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>索引设计</t>
     </r>
   </si>
@@ -2889,7 +2847,7 @@
     <t>报告里根据这些轴，把事件定位回原曲线，叠加 scatter 点</t>
   </si>
   <si>
-    <t>你还做了 fallback：time 不可用就用 sample；再不行用 frame</t>
+    <t>fallback：time 不可用就用 sample；再不行用 frame</t>
   </si>
   <si>
     <t>✅ 这部分是“讲故事能力”：把事件和趋势关联起来</t>
@@ -2986,13 +2944,13 @@
     <t>Quick Stats 用 raw 最大值（不会被 smooth “稀释”）</t>
   </si>
   <si>
-    <t>所以你看到“最大面积很夸张”是 raw 的真实峰值</t>
+    <t>“最大面积很夸张”是 raw 的真实峰值</t>
   </si>
   <si>
     <t>面试官追问“为什么不用 smooth max？”</t>
   </si>
   <si>
-    <t>你可以答：</t>
+    <t>答：</t>
   </si>
   <si>
     <t>「峰值用 raw 保留极端值，趋势展示用 smooth；两者用途不同。」</t>
@@ -3695,10 +3653,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7486,8 +7444,8 @@
   <sheetPr/>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7524,7 +7482,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7552,7 +7510,7 @@
       <c r="A12" s="9"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7582,7 +7540,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7607,7 +7565,7 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7627,7 +7585,7 @@
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7642,7 +7600,7 @@
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7652,7 +7610,7 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7662,7 +7620,7 @@
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7687,7 +7645,7 @@
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7712,7 +7670,7 @@
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7788,14 +7746,14 @@
   <sheetPr/>
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A110"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7823,7 +7781,7 @@
       <c r="A7" s="9"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7853,7 +7811,7 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7878,7 +7836,7 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7898,7 +7856,7 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7913,7 +7871,7 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7923,7 +7881,7 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8265,8 +8223,8 @@
   <sheetPr/>
   <dimension ref="A1:A216"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8782,7 +8740,7 @@
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8897,8 +8855,8 @@
   <sheetPr/>
   <dimension ref="A1:A317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="G308" sqref="G308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -9114,7 +9072,7 @@
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="A76" s="7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9325,152 +9283,152 @@
     </row>
     <row r="149" ht="17.4" spans="1:1">
       <c r="A149" s="2" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="163" ht="17.4" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="176" ht="17.4" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="190" ht="22.2" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192" ht="17.4" spans="1:1">
       <c r="A192" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="201" ht="17.4" spans="1:1">
@@ -9480,57 +9438,57 @@
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="215" ht="17.4" spans="1:1">
       <c r="A215" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="223" ht="17.4" spans="1:1">
@@ -9540,37 +9498,37 @@
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="233" ht="17.4" spans="1:1">
       <c r="A233" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="239" ht="17.4" spans="1:1">
@@ -9580,47 +9538,47 @@
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="253" ht="17.4" spans="1:1">
       <c r="A253" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="259" ht="17.4" spans="1:1">
@@ -9630,17 +9588,17 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="267" ht="22.2" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="269" ht="17.4" spans="1:1">
@@ -9650,12 +9608,12 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="274" ht="17.4" spans="1:1">
@@ -9665,22 +9623,22 @@
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="284" ht="22.2" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="286" ht="17.4" spans="1:1">
@@ -9690,12 +9648,12 @@
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="291" ht="17.4" spans="1:1">
@@ -9705,57 +9663,55 @@
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" ht="30.6" spans="1:1">
-      <c r="A299" s="7" t="s">
-        <v>344</v>
-      </c>
+      <c r="A299" s="8"/>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="305" ht="30.6" spans="1:1">
-      <c r="A305" s="7" t="s">
-        <v>346</v>
+      <c r="A305" s="8" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -9769,15 +9725,15 @@
   <sheetPr/>
   <dimension ref="A1:A118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A118"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
@@ -9787,37 +9743,37 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:1">
@@ -9827,52 +9783,52 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" ht="17.4" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" ht="22.2" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" ht="17.4" spans="1:1">
@@ -9882,12 +9838,12 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" ht="17.4" spans="1:1">
@@ -9897,22 +9853,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" ht="22.2" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" ht="17.4" spans="1:1">
@@ -9922,22 +9878,22 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -9947,7 +9903,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
@@ -9957,42 +9913,42 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83" ht="22.2" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" ht="17.4" spans="1:1">
@@ -10002,47 +9958,47 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" ht="17.4" spans="1:1">
@@ -10052,32 +10008,32 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" ht="22.2" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" ht="17.4" spans="1:1">
@@ -10087,12 +10043,12 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" ht="17.4" spans="1:1">
@@ -10111,15 +10067,15 @@
   <sheetPr/>
   <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
@@ -10129,17 +10085,17 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:1">
@@ -10149,22 +10105,22 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" ht="22.2" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" ht="17.4" spans="1:1">
@@ -10174,17 +10130,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" ht="17.4" spans="1:1">
@@ -10194,22 +10150,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" ht="22.2" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" ht="17.4" spans="1:1">
@@ -10219,17 +10175,17 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -10239,7 +10195,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" ht="17.4" spans="1:1">
@@ -10249,82 +10205,82 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" ht="22.2" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" ht="17.4" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" ht="17.4" spans="1:1">
@@ -10334,27 +10290,27 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" ht="22.2" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" ht="17.4" spans="1:1">
@@ -10364,17 +10320,17 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" ht="17.4" spans="1:1">
@@ -10384,22 +10340,22 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" ht="22.2" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" ht="17.4" spans="1:1">
@@ -10409,12 +10365,12 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" ht="17.4" spans="1:1">
@@ -10424,32 +10380,32 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="127" ht="22.2" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" ht="17.4" spans="1:1">
@@ -10459,22 +10415,22 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" ht="17.4" spans="1:1">
@@ -10484,17 +10440,17 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/PoC構想書提出.xlsx
+++ b/PoC構想書提出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="8"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="構想書" sheetId="4" r:id="rId1"/>
@@ -446,7 +446,7 @@
     </r>
   </si>
   <si>
-    <t>面试官问法</t>
+    <t xml:space="preserve"> 问法</t>
   </si>
   <si>
     <t>Q：为什么要抽帧？</t>
@@ -831,6 +831,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>数据(det_data)</t>
     </r>
     <r>
@@ -1260,6 +1268,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>同一遍循环里同时完成 frame 聚合和 track 累积</t>
     </r>
     <r>
@@ -8223,8 +8239,8 @@
   <sheetPr/>
   <dimension ref="A1:A216"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10067,7 +10083,7 @@
   <sheetPr/>
   <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>

--- a/PoC構想書提出.xlsx
+++ b/PoC構想書提出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="構想書" sheetId="4" r:id="rId1"/>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="464">
   <si>
     <t>POC構造書</t>
-  </si>
-  <si>
-    <t>朱岩</t>
   </si>
   <si>
     <t>１．目的（Purpose）</t>
@@ -7460,8 +7457,8 @@
   <sheetPr/>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7492,34 +7489,29 @@
         <v>46064</v>
       </c>
     </row>
-    <row r="3" spans="13:13">
-      <c r="M3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -7527,182 +7519,182 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7770,27 +7762,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7798,329 +7790,329 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
         <v>57</v>
-      </c>
-      <c r="B66" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
         <v>59</v>
-      </c>
-      <c r="B67" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
         <v>61</v>
-      </c>
-      <c r="B68" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
         <v>63</v>
-      </c>
-      <c r="B69" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" t="s">
         <v>65</v>
-      </c>
-      <c r="B70" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" t="s">
         <v>70</v>
-      </c>
-      <c r="B90" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" t="s">
         <v>74</v>
-      </c>
-      <c r="B93" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -8143,88 +8135,88 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:12">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="12:17">
       <c r="L3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
         <v>81</v>
-      </c>
-      <c r="O3" t="s">
-        <v>82</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="O5" t="s">
         <v>85</v>
-      </c>
-      <c r="O5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="12:12">
       <c r="L7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="12:12">
       <c r="L9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="12:12">
       <c r="L13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8239,7 +8231,7 @@
   <sheetPr/>
   <dimension ref="A1:A216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
@@ -8247,617 +8239,617 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" ht="22.2" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" ht="17.4" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" ht="17.4" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" ht="17.4" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" ht="22.2" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" ht="17.4" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="17.4" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" ht="22.2" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" ht="17.4" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" ht="17.4" spans="1:1">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" ht="17.4" spans="1:1">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" ht="22.2" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" ht="17.4" spans="1:1">
       <c r="A137" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" ht="17.4" spans="1:1">
       <c r="A145" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" ht="17.4" spans="1:1">
       <c r="A153" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" ht="22.2" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" ht="17.4" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" ht="17.4" spans="1:1">
       <c r="A177" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" ht="17.4" spans="1:1">
       <c r="A185" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" ht="22.2" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" ht="17.4" spans="1:1">
       <c r="A195" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" ht="17.4" spans="1:1">
       <c r="A204" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="212" ht="17.4" spans="1:1">
       <c r="A212" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -8879,812 +8871,812 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" ht="22.2" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" ht="17.4" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" ht="17.4" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" ht="17.4" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" ht="22.2" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" ht="17.4" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" ht="22.2" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" ht="17.4" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" ht="17.4" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" ht="22.2" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" ht="17.4" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" ht="17.4" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" ht="17.4" spans="1:1">
       <c r="A122" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" ht="17.4" spans="1:1">
       <c r="A149" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" ht="17.4" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="176" ht="17.4" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="190" ht="22.2" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="192" ht="17.4" spans="1:1">
       <c r="A192" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="201" ht="17.4" spans="1:1">
       <c r="A201" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" ht="17.4" spans="1:1">
       <c r="A215" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="223" ht="17.4" spans="1:1">
       <c r="A223" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="233" ht="17.4" spans="1:1">
       <c r="A233" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="239" ht="17.4" spans="1:1">
       <c r="A239" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="253" ht="17.4" spans="1:1">
       <c r="A253" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" ht="17.4" spans="1:1">
       <c r="A259" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="267" ht="22.2" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="269" ht="17.4" spans="1:1">
       <c r="A269" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="274" ht="17.4" spans="1:1">
       <c r="A274" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="284" ht="22.2" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="286" ht="17.4" spans="1:1">
       <c r="A286" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="291" ht="17.4" spans="1:1">
       <c r="A291" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="299" ht="30.6" spans="1:1">
@@ -9692,42 +9684,42 @@
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="305" ht="30.6" spans="1:1">
       <c r="A305" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -9749,327 +9741,327 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" ht="17.4" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" ht="22.2" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" ht="17.4" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" ht="17.4" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" ht="22.2" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" ht="17.4" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" ht="22.2" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" ht="17.4" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" ht="17.4" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" ht="22.2" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" ht="17.4" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" ht="17.4" spans="1:1">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -10091,382 +10083,382 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" ht="22.2" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" ht="17.4" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" ht="17.4" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" ht="22.2" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" ht="17.4" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" ht="17.4" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" ht="22.2" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" ht="17.4" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" ht="17.4" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" ht="22.2" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" ht="17.4" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" ht="17.4" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" ht="22.2" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" ht="17.4" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" ht="17.4" spans="1:1">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" ht="22.2" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="129" ht="17.4" spans="1:1">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="137" ht="17.4" spans="1:1">
       <c r="A137" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/PoC構想書提出.xlsx
+++ b/PoC構想書提出.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="465">
   <si>
     <t>POC構造書</t>
   </si>
@@ -83,79 +83,82 @@
     <t>解像度：360p</t>
   </si>
   <si>
+    <t>取得頻度：3fps（抽帧処理）</t>
+  </si>
+  <si>
+    <t>対象期間：2日（10min）</t>
+  </si>
+  <si>
+    <t>4. 技術構成（Architecture）</t>
+  </si>
+  <si>
+    <t>4.1 船舶検出（Detection）</t>
+  </si>
+  <si>
+    <t>モデル：YOLOv8n,YOLOv8s(本番選定)</t>
+  </si>
+  <si>
+    <t>対象クラス：選定しない(安定性のため)、Boat（単一クラス、精度のため）</t>
+  </si>
+  <si>
+    <t>4.2 トラッキング（Tracking）</t>
+  </si>
+  <si>
+    <t>手法：ByteTrack</t>
+  </si>
+  <si>
+    <t>目的：ID維持による時系列統合</t>
+  </si>
+  <si>
+    <t>4.3 特徴量生成（Feature Engineering）</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>5. イベント化（Event Generation）</t>
+  </si>
+  <si>
+    <t>6. 評価指標（Evaluation）</t>
+  </si>
+  <si>
+    <t>特徴量の安定性</t>
+  </si>
+  <si>
+    <t>イベント検出の再現性</t>
+  </si>
+  <si>
+    <t>既存市場指標との相関傾向</t>
+  </si>
+  <si>
+    <t>処理コスト / 推論時間</t>
+  </si>
+  <si>
+    <t>7. リスクと対応（Risk）</t>
+  </si>
+  <si>
+    <t>夜間・悪天候</t>
+  </si>
+  <si>
+    <t>画像強化、defog</t>
+  </si>
+  <si>
+    <t>遮蔽・混雑</t>
+  </si>
+  <si>
+    <t>8. 期待効果、今後の考え</t>
+  </si>
+  <si>
+    <t>投資判断の早期性向上</t>
+  </si>
+  <si>
+    <t>エージェント説明性の強化</t>
+  </si>
+  <si>
+    <t>他分野（物流・資源）への展開可能性</t>
+  </si>
+  <si>
     <t>取得頻度：1fps（抽帧処理）</t>
-  </si>
-  <si>
-    <t>対象期間：2日（10min）</t>
-  </si>
-  <si>
-    <t>4. 技術構成（Architecture）</t>
-  </si>
-  <si>
-    <t>4.1 船舶検出（Detection）</t>
-  </si>
-  <si>
-    <t>モデル：YOLOv8n,YOLOv8s(本番選定)</t>
-  </si>
-  <si>
-    <t>対象クラス：選定しない(安定性のため)、Boat（単一クラス、精度のため）</t>
-  </si>
-  <si>
-    <t>4.2 トラッキング（Tracking）</t>
-  </si>
-  <si>
-    <t>手法：ByteTrack</t>
-  </si>
-  <si>
-    <t>目的：ID維持による時系列統合</t>
-  </si>
-  <si>
-    <t>4.3 特徴量生成（Feature Engineering）</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>5. イベント化（Event Generation）</t>
-  </si>
-  <si>
-    <t>6. 評価指標（Evaluation）</t>
-  </si>
-  <si>
-    <t>特徴量の安定性</t>
-  </si>
-  <si>
-    <t>イベント検出の再現性</t>
-  </si>
-  <si>
-    <t>既存市場指標との相関傾向</t>
-  </si>
-  <si>
-    <t>処理コスト / 推論時間</t>
-  </si>
-  <si>
-    <t>7. リスクと対応（Risk）</t>
-  </si>
-  <si>
-    <t>夜間・悪天候</t>
-  </si>
-  <si>
-    <t>画像強化、defog</t>
-  </si>
-  <si>
-    <t>遮蔽・混雑</t>
-  </si>
-  <si>
-    <t>8. 期待効果、今後の考え</t>
-  </si>
-  <si>
-    <t>投資判断の早期性向上</t>
-  </si>
-  <si>
-    <t>エージェント説明性の強化</t>
-  </si>
-  <si>
-    <t>他分野（物流・資源）への展開可能性</t>
   </si>
   <si>
     <t>手法：ByteTrack / SORT</t>
@@ -7457,8 +7460,8 @@
   <sheetPr/>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7835,7 +7838,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -7870,7 +7873,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -7900,137 +7903,137 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -8055,15 +8058,15 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -8071,7 +8074,7 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -8079,25 +8082,25 @@
         <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -8128,95 +8131,95 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" ht="17.4" spans="1:12">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="12:17">
       <c r="L3" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="12:12">
       <c r="L7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="12:12">
       <c r="L9" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="12:12">
       <c r="L13" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -8239,617 +8242,617 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" ht="22.2" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" ht="17.4" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" ht="17.4" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" ht="17.4" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" ht="22.2" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" ht="17.4" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" ht="17.4" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" ht="22.2" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" ht="17.4" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" ht="17.4" spans="1:1">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" ht="17.4" spans="1:1">
       <c r="A127" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" ht="22.2" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" ht="17.4" spans="1:1">
       <c r="A137" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" ht="17.4" spans="1:1">
       <c r="A145" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" ht="17.4" spans="1:1">
       <c r="A153" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" ht="22.2" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" ht="17.4" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" ht="17.4" spans="1:1">
       <c r="A177" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" ht="17.4" spans="1:1">
       <c r="A185" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" ht="22.2" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" ht="17.4" spans="1:1">
       <c r="A195" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="204" ht="17.4" spans="1:1">
       <c r="A204" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212" ht="17.4" spans="1:1">
       <c r="A212" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8871,812 +8874,812 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" ht="22.2" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" ht="17.4" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" ht="17.4" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" ht="17.4" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" ht="22.2" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" ht="17.4" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" ht="22.2" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" ht="17.4" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" ht="17.4" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" ht="22.2" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" ht="17.4" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" ht="17.4" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" ht="17.4" spans="1:1">
       <c r="A122" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" ht="17.4" spans="1:1">
       <c r="A149" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="163" ht="17.4" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="176" ht="17.4" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="190" ht="22.2" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192" ht="17.4" spans="1:1">
       <c r="A192" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="201" ht="17.4" spans="1:1">
       <c r="A201" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="215" ht="17.4" spans="1:1">
       <c r="A215" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="223" ht="17.4" spans="1:1">
       <c r="A223" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="233" ht="17.4" spans="1:1">
       <c r="A233" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="239" ht="17.4" spans="1:1">
       <c r="A239" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="253" ht="17.4" spans="1:1">
       <c r="A253" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="259" ht="17.4" spans="1:1">
       <c r="A259" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="267" ht="22.2" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="269" ht="17.4" spans="1:1">
       <c r="A269" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="274" ht="17.4" spans="1:1">
       <c r="A274" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="284" ht="22.2" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="286" ht="17.4" spans="1:1">
       <c r="A286" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="291" ht="17.4" spans="1:1">
       <c r="A291" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" ht="30.6" spans="1:1">
@@ -9684,42 +9687,42 @@
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="305" ht="30.6" spans="1:1">
       <c r="A305" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -9741,327 +9744,327 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" ht="17.4" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" ht="22.2" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" ht="17.4" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" ht="17.4" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" ht="22.2" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" ht="17.4" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="83" ht="22.2" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" ht="17.4" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" ht="17.4" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" ht="22.2" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" ht="17.4" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" ht="17.4" spans="1:1">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -10083,382 +10086,382 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" ht="22.2" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" ht="17.4" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" ht="17.4" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" ht="22.2" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" ht="17.4" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" ht="17.4" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" ht="22.2" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" ht="17.4" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" ht="17.4" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" ht="22.2" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" ht="17.4" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" ht="17.4" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" ht="22.2" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" ht="17.4" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" ht="17.4" spans="1:1">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="127" ht="22.2" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" ht="17.4" spans="1:1">
       <c r="A129" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" ht="17.4" spans="1:1">
       <c r="A137" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/PoC構想書提出.xlsx
+++ b/PoC構想書提出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="構想書" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="470">
   <si>
     <t>POC構造書</t>
   </si>
@@ -113,39 +113,54 @@
     <t>4.3 特徴量生成（Feature Engineering）</t>
   </si>
   <si>
+    <t>船数・面積・信頼度</t>
+  </si>
+  <si>
+    <t>移動距離・出現時間</t>
+  </si>
+  <si>
+    <t>5フレーム移動平均（smooth）(船数・面積のみ)</t>
+  </si>
+  <si>
+    <t>5. イベント化（Event Generation）</t>
+  </si>
+  <si>
+    <t>rolling Z-score による異常検出</t>
+  </si>
+  <si>
+    <t>（混雑・大型船出現）</t>
+  </si>
+  <si>
+    <t>6. 評価指標（Evaluation）</t>
+  </si>
+  <si>
+    <t>特徴量の安定性</t>
+  </si>
+  <si>
+    <t>イベント検出の再現性</t>
+  </si>
+  <si>
+    <t>既存市場指標との相関傾向</t>
+  </si>
+  <si>
+    <t>処理コスト / 推論時間</t>
+  </si>
+  <si>
+    <t>7. リスクと対応（Risk）</t>
+  </si>
+  <si>
+    <t>夜間・悪天候</t>
+  </si>
+  <si>
+    <t>画像強化、defog</t>
+  </si>
+  <si>
+    <t>遮蔽・混雑</t>
+  </si>
+  <si>
     <t>TBD</t>
   </si>
   <si>
-    <t>5. イベント化（Event Generation）</t>
-  </si>
-  <si>
-    <t>6. 評価指標（Evaluation）</t>
-  </si>
-  <si>
-    <t>特徴量の安定性</t>
-  </si>
-  <si>
-    <t>イベント検出の再現性</t>
-  </si>
-  <si>
-    <t>既存市場指標との相関傾向</t>
-  </si>
-  <si>
-    <t>処理コスト / 推論時間</t>
-  </si>
-  <si>
-    <t>7. リスクと対応（Risk）</t>
-  </si>
-  <si>
-    <t>夜間・悪天候</t>
-  </si>
-  <si>
-    <t>画像強化、defog</t>
-  </si>
-  <si>
-    <t>遮蔽・混雑</t>
-  </si>
-  <si>
     <t>8. 期待効果、今後の考え</t>
   </si>
   <si>
@@ -2948,7 +2963,7 @@
     </r>
   </si>
   <si>
-    <t>6) Quick Stats：统计 raw 的 max（提示你看见的 20w 峰值来自这里）</t>
+    <t>6) Quick Stats：统计 raw 的 max（看见的 20w 峰值来自这里）</t>
   </si>
   <si>
     <t>max_count = int(df["ship_count"].max())</t>
@@ -7458,10 +7473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7620,84 +7635,99 @@
         <v>25</v>
       </c>
     </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7" t="s">
+      <c r="A47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>34</v>
+      <c r="A68" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="A74" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -7715,7 +7745,7 @@
   <sheetPr/>
   <dimension ref="M29:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -7757,7 +7787,7 @@
   <sheetPr/>
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
@@ -7838,7 +7868,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -7873,7 +7903,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -7888,234 +7918,234 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -8131,95 +8161,95 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" ht="17.4" spans="1:12">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="12:17">
       <c r="L3" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="12:12">
       <c r="L7" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="12:12">
       <c r="L9" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="12:12">
       <c r="L13" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="12:12">
       <c r="L19" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="12:12">
       <c r="L20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="12:12">
       <c r="L21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -8242,617 +8272,617 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="17.4" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" ht="17.4" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" ht="22.2" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" ht="17.4" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" ht="17.4" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" ht="17.4" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" ht="22.2" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" ht="17.4" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="17.4" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" ht="22.2" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" ht="17.4" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" ht="17.4" spans="1:1">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" ht="17.4" spans="1:1">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" ht="22.2" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" ht="17.4" spans="1:1">
       <c r="A137" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" ht="17.4" spans="1:1">
       <c r="A145" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" ht="17.4" spans="1:1">
       <c r="A153" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" ht="22.2" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" ht="17.4" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" ht="17.4" spans="1:1">
       <c r="A177" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" ht="17.4" spans="1:1">
       <c r="A185" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" ht="22.2" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" ht="17.4" spans="1:1">
       <c r="A195" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204" ht="17.4" spans="1:1">
       <c r="A204" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" ht="17.4" spans="1:1">
       <c r="A212" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8874,812 +8904,812 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" ht="22.2" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" ht="17.4" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" ht="17.4" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" ht="17.4" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" ht="22.2" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" ht="17.4" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" ht="22.2" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" ht="17.4" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" ht="17.4" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" ht="22.2" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" ht="17.4" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" ht="17.4" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" ht="17.4" spans="1:1">
       <c r="A122" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" ht="17.4" spans="1:1">
       <c r="A149" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" ht="17.4" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" ht="17.4" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="190" ht="22.2" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" ht="17.4" spans="1:1">
       <c r="A192" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="201" ht="17.4" spans="1:1">
       <c r="A201" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="215" ht="17.4" spans="1:1">
       <c r="A215" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" ht="17.4" spans="1:1">
       <c r="A223" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="233" ht="17.4" spans="1:1">
       <c r="A233" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="239" ht="17.4" spans="1:1">
       <c r="A239" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="5" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="5" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="5" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="253" ht="17.4" spans="1:1">
       <c r="A253" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="259" ht="17.4" spans="1:1">
       <c r="A259" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="267" ht="22.2" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="269" ht="17.4" spans="1:1">
       <c r="A269" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="274" ht="17.4" spans="1:1">
       <c r="A274" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="284" ht="22.2" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="286" ht="17.4" spans="1:1">
       <c r="A286" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="291" ht="17.4" spans="1:1">
       <c r="A291" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="299" ht="30.6" spans="1:1">
@@ -9687,42 +9717,42 @@
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" ht="30.6" spans="1:1">
       <c r="A305" s="8" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="6" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="5" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="6" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="5" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="5" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -9736,7 +9766,7 @@
   <sheetPr/>
   <dimension ref="A1:A118"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
@@ -9744,327 +9774,327 @@
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" ht="17.4" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" ht="17.4" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" ht="22.2" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" ht="17.4" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" ht="17.4" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" ht="22.2" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" ht="17.4" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" ht="17.4" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="4" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" ht="22.2" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" ht="17.4" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="3" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" ht="17.4" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="4" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="4" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" ht="22.2" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" ht="17.4" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" ht="17.4" spans="1:1">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -10078,390 +10108,390 @@
   <sheetPr/>
   <dimension ref="A1:A143"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" ht="22.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" ht="17.4" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" ht="22.2" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" ht="17.4" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" ht="17.4" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" ht="22.2" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" ht="17.4" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" ht="17.4" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61" ht="22.2" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" ht="17.4" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" ht="17.4" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="4" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" ht="22.2" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" ht="17.4" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" ht="17.4" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="108" ht="22.2" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="110" ht="17.4" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" ht="17.4" spans="1:1">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="4" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" ht="22.2" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" ht="17.4" spans="1:1">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="3" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="3" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="137" ht="17.4" spans="1:1">
       <c r="A137" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="4" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="4" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="4" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
